--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
@@ -229,8 +229,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="171">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -423,7 +425,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="171">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -509,6 +511,7 @@
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -594,6 +597,7 @@
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -926,7 +930,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1497,7 +1501,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
@@ -1532,7 +1536,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B18" s="4">
         <v>2</v>
@@ -1567,7 +1571,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B19" s="4">
         <v>2</v>
@@ -1602,7 +1606,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4">
         <v>2</v>
@@ -1637,7 +1641,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4">
         <v>2</v>
@@ -1672,7 +1676,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="4">
         <v>3</v>
@@ -1681,33 +1685,33 @@
         <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -1716,33 +1720,33 @@
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="4">
         <v>3</v>
@@ -1751,33 +1755,33 @@
         <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B25" s="4">
         <v>3</v>
@@ -1786,33 +1790,33 @@
         <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4">
         <v>3</v>
@@ -1821,33 +1825,33 @@
         <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B27" s="4">
         <v>4</v>
@@ -1856,33 +1860,33 @@
         <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B28" s="4">
         <v>4</v>
@@ -1891,33 +1895,33 @@
         <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B29" s="4">
         <v>4</v>
@@ -1926,33 +1930,33 @@
         <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="4">
         <v>4</v>
@@ -1961,33 +1965,33 @@
         <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4">
         <v>4</v>
@@ -1996,28 +2000,28 @@
         <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="50">
   <si>
     <t>Correct</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>I am good</t>
+  </si>
+  <si>
+    <t>trueLabel</t>
+  </si>
+  <si>
+    <t>falseLabel</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -200,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +231,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -229,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -403,8 +421,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -424,8 +450,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -512,6 +539,10 @@
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -598,6 +629,10 @@
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -927,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D12" sqref="D12:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -938,7 +973,7 @@
     <col min="1" max="2" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -948,33 +983,39 @@
       <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -984,11 +1025,11 @@
       <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>4</v>
+      <c r="D2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>4</v>
@@ -997,10 +1038,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>5</v>
@@ -1008,8 +1049,14 @@
       <c r="K2" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1019,11 +1066,11 @@
       <c r="C3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
+      <c r="D3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>4</v>
@@ -1032,10 +1079,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>5</v>
@@ -1043,8 +1090,14 @@
       <c r="K3" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
@@ -1054,11 +1107,11 @@
       <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>4</v>
+      <c r="D4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>4</v>
@@ -1067,10 +1120,10 @@
         <v>4</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>5</v>
@@ -1078,8 +1131,14 @@
       <c r="K4" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
@@ -1089,11 +1148,11 @@
       <c r="C5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>4</v>
+      <c r="D5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>4</v>
@@ -1102,10 +1161,10 @@
         <v>4</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>5</v>
@@ -1113,8 +1172,14 @@
       <c r="K5" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
@@ -1124,11 +1189,11 @@
       <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>4</v>
+      <c r="D6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>4</v>
@@ -1137,10 +1202,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>5</v>
@@ -1148,8 +1213,14 @@
       <c r="K6" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
@@ -1159,11 +1230,11 @@
       <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
+      <c r="D7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>5</v>
@@ -1172,10 +1243,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>4</v>
@@ -1183,8 +1254,14 @@
       <c r="K7" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
@@ -1194,11 +1271,11 @@
       <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>5</v>
+      <c r="D8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>5</v>
@@ -1207,10 +1284,10 @@
         <v>5</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>4</v>
@@ -1218,8 +1295,14 @@
       <c r="K8" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
@@ -1229,11 +1312,11 @@
       <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>5</v>
+      <c r="D9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>5</v>
@@ -1242,10 +1325,10 @@
         <v>5</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>4</v>
@@ -1253,8 +1336,14 @@
       <c r="K9" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
@@ -1264,11 +1353,11 @@
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>5</v>
+      <c r="D10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>5</v>
@@ -1277,10 +1366,10 @@
         <v>5</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>4</v>
@@ -1288,8 +1377,14 @@
       <c r="K10" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="11" t="s">
         <v>36</v>
       </c>
@@ -1299,11 +1394,11 @@
       <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>5</v>
+      <c r="D11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>5</v>
@@ -1312,10 +1407,10 @@
         <v>5</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>4</v>
@@ -1323,8 +1418,14 @@
       <c r="K11" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -1334,11 +1435,11 @@
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
+      <c r="D12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
@@ -1347,10 +1448,10 @@
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>5</v>
@@ -1358,8 +1459,14 @@
       <c r="K12" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1369,11 +1476,11 @@
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>5</v>
+      <c r="D13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
@@ -1382,10 +1489,10 @@
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>5</v>
@@ -1393,8 +1500,14 @@
       <c r="K13" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1404,11 +1517,11 @@
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>5</v>
+      <c r="D14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>4</v>
@@ -1417,10 +1530,10 @@
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>5</v>
@@ -1428,8 +1541,14 @@
       <c r="K14" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -1439,11 +1558,11 @@
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>5</v>
+      <c r="D15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
@@ -1452,10 +1571,10 @@
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>5</v>
@@ -1463,8 +1582,14 @@
       <c r="K15" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
@@ -1474,11 +1599,11 @@
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>5</v>
+      <c r="D16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
@@ -1487,10 +1612,10 @@
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>5</v>
@@ -1498,8 +1623,14 @@
       <c r="K16" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1509,11 +1640,11 @@
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>4</v>
+      <c r="D17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>5</v>
@@ -1522,10 +1653,10 @@
         <v>4</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>4</v>
@@ -1533,8 +1664,14 @@
       <c r="K17" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
@@ -1544,11 +1681,11 @@
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>4</v>
+      <c r="D18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>5</v>
@@ -1557,10 +1694,10 @@
         <v>4</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>4</v>
@@ -1568,8 +1705,14 @@
       <c r="K18" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -1579,11 +1722,11 @@
       <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>4</v>
+      <c r="D19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>5</v>
@@ -1592,10 +1735,10 @@
         <v>4</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>4</v>
@@ -1603,8 +1746,14 @@
       <c r="K19" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1614,11 +1763,11 @@
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>4</v>
+      <c r="D20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>5</v>
@@ -1627,10 +1776,10 @@
         <v>4</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>4</v>
@@ -1638,8 +1787,14 @@
       <c r="K20" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -1649,11 +1804,11 @@
       <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>4</v>
+      <c r="D21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>5</v>
@@ -1662,10 +1817,10 @@
         <v>4</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>4</v>
@@ -1673,8 +1828,14 @@
       <c r="K21" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
@@ -1684,11 +1845,11 @@
       <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>4</v>
+      <c r="D22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>5</v>
@@ -1697,10 +1858,10 @@
         <v>4</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>4</v>
@@ -1708,8 +1869,14 @@
       <c r="K22" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1719,11 +1886,11 @@
       <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>4</v>
+      <c r="D23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>5</v>
@@ -1732,10 +1899,10 @@
         <v>4</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>4</v>
@@ -1743,8 +1910,14 @@
       <c r="K23" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1754,11 +1927,11 @@
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>4</v>
+      <c r="D24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>5</v>
@@ -1767,10 +1940,10 @@
         <v>4</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>4</v>
@@ -1778,8 +1951,14 @@
       <c r="K24" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
@@ -1789,11 +1968,11 @@
       <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>4</v>
+      <c r="D25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>5</v>
@@ -1802,10 +1981,10 @@
         <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>4</v>
@@ -1813,8 +1992,14 @@
       <c r="K25" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -1824,11 +2009,11 @@
       <c r="C26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>4</v>
+      <c r="D26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>5</v>
@@ -1837,10 +2022,10 @@
         <v>4</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>4</v>
@@ -1848,8 +2033,14 @@
       <c r="K26" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -1859,11 +2050,11 @@
       <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>5</v>
+      <c r="D27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>4</v>
@@ -1872,10 +2063,10 @@
         <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>5</v>
@@ -1883,8 +2074,14 @@
       <c r="K27" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="6" t="s">
         <v>16</v>
       </c>
@@ -1894,11 +2091,11 @@
       <c r="C28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>5</v>
+      <c r="D28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>4</v>
@@ -1907,10 +2104,10 @@
         <v>5</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>5</v>
@@ -1918,8 +2115,14 @@
       <c r="K28" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="6" t="s">
         <v>14</v>
       </c>
@@ -1929,11 +2132,11 @@
       <c r="C29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>5</v>
+      <c r="D29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>4</v>
@@ -1942,10 +2145,10 @@
         <v>5</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>5</v>
@@ -1953,8 +2156,14 @@
       <c r="K29" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="6" t="s">
         <v>24</v>
       </c>
@@ -1964,11 +2173,11 @@
       <c r="C30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>5</v>
+      <c r="D30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -1977,10 +2186,10 @@
         <v>5</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>5</v>
@@ -1988,8 +2197,14 @@
       <c r="K30" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
@@ -1999,11 +2214,11 @@
       <c r="C31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>5</v>
+      <c r="D31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>4</v>
@@ -2012,15 +2227,21 @@
         <v>5</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
   <si>
     <t>Correct</t>
   </si>
@@ -69,9 +69,6 @@
     <t>stimulus</t>
   </si>
   <si>
-    <t>trialtype</t>
-  </si>
-  <si>
     <t>I am interesting</t>
   </si>
   <si>
@@ -117,19 +114,19 @@
     <t>I am good</t>
   </si>
   <si>
-    <t>trueLabel</t>
-  </si>
-  <si>
-    <t>falseLabel</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
     <t>FALSE</t>
   </si>
   <si>
-    <t>1</t>
+    <t>false_label</t>
+  </si>
+  <si>
+    <t>trial_type</t>
+  </si>
+  <si>
+    <t>true_label</t>
   </si>
 </sst>
 </file>
@@ -173,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +189,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6666FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0080FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -202,7 +223,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -406,29 +427,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -530,6 +572,8 @@
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -631,6 +675,8 @@
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -963,7 +1009,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -977,10 +1023,10 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
@@ -991,420 +1037,420 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
+      <c r="B2" s="5">
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="15">
+        <v>3</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="15">
+        <v>3</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="15">
+        <v>3</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="19">
+        <v>4</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="19">
+        <v>4</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="19">
+        <v>4</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
+      <c r="B21" s="19">
+        <v>4</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="22">
+        <v>5</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="22">
+        <v>5</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="10">
-        <v>3</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10">
-        <v>3</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="10">
-        <v>3</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="10">
-        <v>3</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12" t="s">
+      <c r="B25" s="22">
+        <v>5</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="10">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="10">
-        <v>4</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="10">
-        <v>4</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="10">
-        <v>4</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="12" t="s">
+      <c r="B26" s="22">
+        <v>5</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="7">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="7">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="7">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="10">
-        <v>4</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="10">
-        <v>4</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="10">
-        <v>5</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="10">
-        <v>5</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="10">
-        <v>5</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="10">
-        <v>5</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="12" t="s">
+      <c r="B30" s="7">
+        <v>6</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="10">
-        <v>5</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="12" t="s">
+      <c r="B31" s="7">
         <v>6</v>
       </c>
-      <c r="B27" s="10">
-        <v>6</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="10">
-        <v>6</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="10">
-        <v>6</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="10">
-        <v>6</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="10">
-        <v>6</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>35</v>
+      <c r="C31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="6080" windowWidth="16560" windowHeight="4720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Correct</t>
   </si>
@@ -66,9 +66,6 @@
     <t>I am not a failure</t>
   </si>
   <si>
-    <t>stimulus</t>
-  </si>
-  <si>
     <t>I am interesting</t>
   </si>
   <si>
@@ -114,26 +111,29 @@
     <t>I am good</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>false_label</t>
-  </si>
-  <si>
-    <t>trial_type</t>
-  </si>
-  <si>
-    <t>true_label</t>
+    <t>trial_type_1_exemplars</t>
+  </si>
+  <si>
+    <t>trial_type_2_exemplars</t>
+  </si>
+  <si>
+    <t>trial_type_3_exemplars</t>
+  </si>
+  <si>
+    <t>trial_type_4_exemplars</t>
+  </si>
+  <si>
+    <t>trial_type_5_exemplars</t>
+  </si>
+  <si>
+    <t>trial_type_6_exemplars</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,59 +159,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1890A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6666"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6666FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0080FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -223,7 +180,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="207">
+  <cellStyleXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -431,46 +388,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="207">
+  <cellStyles count="221">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -574,6 +514,13 @@
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -677,6 +624,13 @@
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1006,451 +960,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="1" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="11">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="15">
-        <v>3</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="15">
-        <v>3</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="15">
-        <v>3</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="15">
-        <v>3</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="17" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="15">
-        <v>3</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="19">
-        <v>4</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="19">
-        <v>4</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="19">
-        <v>4</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="19">
-        <v>4</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="19">
-        <v>4</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="22">
-        <v>5</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="22">
-        <v>5</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="22">
-        <v>5</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="22">
-        <v>5</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="21" t="s">
+      <c r="F6" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B26" s="22">
-        <v>5</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="7">
-        <v>6</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="7">
-        <v>6</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="7">
-        <v>6</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="7">
-        <v>6</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="7">
-        <v>6</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
